--- a/mapdata.xlsx
+++ b/mapdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">David,Adam,Evan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayal</t>
   </si>
   <si>
     <t xml:space="preserve">Brian,Jeff</t>
@@ -329,10 +332,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="132" zoomScaleNormal="132" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -588,47 +591,59 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/mapdata.xlsx
+++ b/mapdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t xml:space="preserve">Eureka Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goat Island</t>
   </si>
 </sst>
 </file>
@@ -332,10 +335,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="132" zoomScaleNormal="132" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -646,6 +649,23 @@
         <v>46</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
